--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T21:22:54+00:00</t>
+    <t>2022-05-15T23:31:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -558,7 +558,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -42163,7 +42163,7 @@
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F369" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T23:31:21+00:00</t>
+    <t>2022-05-16T00:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:19:33+00:00</t>
+    <t>2022-05-16T00:37:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:37:48+00:00</t>
+    <t>2022-05-16T01:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:16:16+00:00</t>
+    <t>2022-05-16T01:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:43:18+00:00</t>
+    <t>2022-05-16T01:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:51:29+00:00</t>
+    <t>2022-05-16T02:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:01:05+00:00</t>
+    <t>2022-05-16T02:10:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:10:26+00:00</t>
+    <t>2022-05-16T02:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:20:03+00:00</t>
+    <t>2022-05-16T02:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:38:18+00:00</t>
+    <t>2022-05-16T06:42:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15036" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15033" uniqueCount="334">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T06:42:02+00:00</t>
+    <t>2022-05-16T08:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -567,7 +567,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resource}
+    <t xml:space="preserve">value:resource.meta.profile}
 </t>
   </si>
   <si>
@@ -855,27 +855,10 @@
     <t>埋め込まれているCompositionリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Composition_ePrescriptionData}
-</t>
-  </si>
-  <si>
     <t>Compositionリソースのインスタンス本体</t>
   </si>
   <si>
     <t>Compositionリソースのインスタンス本体。</t>
-  </si>
-  <si>
-    <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
-    <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument</t>
   </si>
   <si>
     <t>patient</t>
@@ -893,24 +876,10 @@
     <t>埋め込まれているPatientリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
-    <t xml:space="preserve">SubjectOfCare Client Resident
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Patient_ePrescriptionData}
-</t>
-  </si>
-  <si>
     <t>Patientリソースのインスタンス本体</t>
   </si>
   <si>
     <t>Patientリソースのインスタンス本体。</t>
-  </si>
-  <si>
-    <t>Patient[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument.recordTarget.patientRole</t>
   </si>
   <si>
     <t>encounterOnDocument</t>
@@ -933,21 +902,10 @@
     <t>埋め込まれているEncounterリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
-    <t xml:space="preserve">Visit
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encounter {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Encounter_ePrescriptionData}
-</t>
-  </si>
-  <si>
     <t>Encounterリソースのインスタンス本体</t>
   </si>
   <si>
     <t>Encounterリソースのインスタンス本体。</t>
-  </si>
-  <si>
-    <t>Encounter[@moodCode='EVN']</t>
   </si>
   <si>
     <t>healthInsurancePublic</t>
@@ -967,21 +925,10 @@
     <t>埋め込まれているCoverageリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
-    <t xml:space="preserve">Coverage {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Coverage_ePrescriptionData_insurance}
-</t>
-  </si>
-  <si>
     <t>Coverageリソースのインスタンス本体</t>
   </si>
   <si>
     <t>Coverageリソースのインスタンス本体。</t>
-  </si>
-  <si>
-    <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.
-Coverageには、保険証レベルの情報が含まれている。これは、保険金請求やプロバイダーと保険会社間のその他の通信で提供するのが通例である。</t>
-  </si>
-  <si>
-    <t>Coverage</t>
   </si>
   <si>
     <t>publicPayment</t>
@@ -995,14 +942,7 @@
 公費負担によらず作成された文書や、文書内容が公費負担により実施されるのではない場合、文書の用途の観点から公費負担情報が必須でない場合には、省略できる。複数の公費負担情報を必要とする場合には、繰り返しで記述する。</t>
   </si>
   <si>
-    <t xml:space="preserve">Coverage {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Coverage_ePrescriptionData_publicPayment}
-</t>
-  </si>
-  <si>
     <t>commonPayerOrganization</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>医療保険者組織または公費負担者に関する情報</t>
@@ -1018,24 +958,10 @@
     <t>埋め込まれているOrganizationリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Organization_ePrescriptionData_coveragePayer}
-</t>
-  </si>
-  <si>
     <t>Organizationリソースのインスタンス本体</t>
   </si>
   <si>
     <t>Organizationリソースのインスタンス本体。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
-    <t>(also see master files messages)</t>
-  </si>
-  <si>
-    <t>Organization(classCode=ORG, determinerCode=INST)</t>
   </si>
   <si>
     <t>custodianOrganization</t>
@@ -1047,14 +973,6 @@
     <t>文書を作成した組織（医療機関等）の情報をOrganaizationリソースで記述する。</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Organization_ePrescriptionData_issuer}
-</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}checkPhoneNumberExists:【telecomに電話番号が最低ひとつ記述されている】 {(telecom.where(system='phone' and value.exists())).exists()}</t>
-  </si>
-  <si>
     <t>custodianDepartmentOfOrganization</t>
   </si>
   <si>
@@ -1062,14 +980,6 @@
   </si>
   <si>
     <t>文書を作成した組織（医療機関等）における部門や診療科に関する情報をOrganaizationリソースで記述する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organization {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Organization_ePrescriptionData_departmentOfIssuer}
-</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}checkOrganizationType0:【診療部門コード(type[0].coding.where(system='http://terminology.hl7.org/CodeSystem/organization-type' and code='dept'))が正しい】 {(type[0].coding.where(system='http://terminology.hl7.org/CodeSystem/organization-type' and code='dept')).exists()}checkOrganizationType1:【診療科コード(type[1].coding.where(system='urn:oid:1.2.392.100495.20.2.51'))が存在する】 {(type[1].exists().not()) or ((type[1].coding.where(system='urn:oid:1.2.392.100495.20.2.51' )).exists())}</t>
   </si>
   <si>
     <t>authorisedAuthorRole</t>
@@ -1088,20 +998,10 @@
     <t>埋め込まれているPractitionerRoleリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
-    <t xml:space="preserve">PractitionerRole {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_PractitionerRole_ePrescriptionData_author}
-</t>
-  </si>
-  <si>
     <t>PractitionerRoleリソースのインスタンス本体</t>
   </si>
   <si>
     <t>PractitionerRoleリソースのインスタンス本体。</t>
-  </si>
-  <si>
-    <t>PRD (as one example)</t>
-  </si>
-  <si>
-    <t>Role</t>
   </si>
   <si>
     <t>authorisedAuthor</t>
@@ -1120,26 +1020,10 @@
     <t>埋め込まれているPractitionerリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Practitioner_ePrescriptionData_author}
-</t>
-  </si>
-  <si>
     <t>Practitionerリソースのインスタンス本体</t>
   </si>
   <si>
     <t>Practitionerリソースのインスタンス本体。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}checkQualification-DoctorLicenseExists:【医師または歯科医師免許番号が存在し、system=urn:oid:1.2.392.100495.20.3.31で記述されている】 {(qualification[0].identifier.where(system='urn:oid:1.2.392.100495.20.3.31').exists()
-    and (qualification[0].code.coding.where(system='http://jpfhir.jp/fhir/core/CodeSystem/practitioner_certificate_category'
-      and (code='MedicalDoctorLicense' or code='DentalDoctorLicense'))).exists())}checkQualification-approapriateLicense:【資格番号は医師または歯科医師免許番号、麻薬施用者番号のいずれでかである】 {(qualification[1]).exists().not() or (qualification[1].code.coding.where(system='http://jpfhir.jp/fhir/core/CodeSystem/practitioner-certificate-category' and code!='MedicalDoctorLicense' and code!='DentalDoctorLicense' and code!='NarcoticsPractitioner') ).exists().not()}checkQualification-NarcoticPractitioner:【麻薬施用者番号が存在しないならそのチェックは不要。麻薬施用者番号が存在する場合はコードNarcoticPractitioner、identifier.system=urn:oid:1.2.392.100495.20.3.32.1XXXである】 {((qualification[1]).exists().not())
- or ((qualification[1].code.coding.where(
-    system='http://jpfhir.jp/fhir/core/CodeSystem/practitioner-certificate-category'
-    and code='NarcoticsPractitioner') ).exists()
- and qualification[1].identifier.where(
-     system.startsWith('urn:oid:1.2.392.100495.20.3.32.1')
-     ).exists())}checkQualification-category:【資格コードシステムはpractitioner_certificate_categoryだけである】 {(qualification[1]).exists().not() or (qualification.code.coding.where(system!='http://jpfhir.jp/fhir/core/CodeSystem/practitioner-certificate-category')).exists().not()}</t>
   </si>
   <si>
     <t>medicationRequest</t>
@@ -1151,21 +1035,10 @@
     <t>処方情報エントリ。医薬品の数だけ出現する。</t>
   </si>
   <si>
-    <t>Prescription
-Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MedicationRequest {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_MedicationRequest_ePrescriptionData}
-</t>
-  </si>
-  <si>
     <t>MedicationRequestリソースのインスタンス本体</t>
   </si>
   <si>
     <t>MedicationRequestリソースのインスタンス本体。</t>
-  </si>
-  <si>
-    <t>CombinedMedicationRequest</t>
   </si>
   <si>
     <t>communication</t>
@@ -1177,14 +1050,7 @@
     <t>備考情報エントリで処方箋全体の指示、明細単位での備考を記述するリソースへの参照。</t>
   </si>
   <si>
-    <t xml:space="preserve">Communication {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Communication_ePrescriptionData}
-</t>
-  </si>
-  <si>
     <t>Communicationrリソースのインスタンス本体</t>
-  </si>
-  <si>
-    <t>Entity. Role, or Act</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1524,7 +1390,7 @@
   <cols>
     <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.90234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1548,7 +1414,7 @@
     <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="27.59765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -1557,8 +1423,8 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="67.23828125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -7549,20 +7415,18 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>73</v>
@@ -7623,16 +7487,16 @@
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>271</v>
+        <v>73</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>73</v>
@@ -10398,7 +10262,7 @@
         <v>169</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>73</v>
@@ -10423,10 +10287,10 @@
         <v>140</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10974,10 +10838,10 @@
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>185</v>
@@ -11063,7 +10927,7 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>277</v>
+        <v>73</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11079,16 +10943,16 @@
         <v>73</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>278</v>
+        <v>187</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11151,16 +11015,16 @@
         <v>73</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>281</v>
+        <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>73</v>
@@ -13926,7 +13790,7 @@
         <v>169</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>73</v>
@@ -13951,13 +13815,13 @@
         <v>140</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -14504,10 +14368,10 @@
         <v>96</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>185</v>
@@ -14593,7 +14457,7 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14609,16 +14473,16 @@
         <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14681,13 +14545,13 @@
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>73</v>
@@ -17456,7 +17320,7 @@
         <v>169</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>73</v>
@@ -17481,10 +17345,10 @@
         <v>140</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -18032,10 +17896,10 @@
         <v>96</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>185</v>
@@ -18137,20 +18001,18 @@
         <v>73</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>299</v>
+        <v>187</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>73</v>
@@ -18211,13 +18073,13 @@
         <v>73</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>73</v>
@@ -20986,7 +20848,7 @@
         <v>169</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>73</v>
@@ -21011,10 +20873,10 @@
         <v>140</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -21562,10 +21424,10 @@
         <v>96</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>185</v>
@@ -21667,20 +21529,18 @@
         <v>73</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
         <v>73</v>
@@ -21741,13 +21601,13 @@
         <v>73</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>73</v>
@@ -24516,7 +24376,7 @@
         <v>169</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C209" t="s" s="2">
         <v>73</v>
@@ -24526,7 +24386,7 @@
         <v>74</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>83</v>
@@ -24541,10 +24401,10 @@
         <v>140</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
@@ -25092,10 +24952,10 @@
         <v>96</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="M214" t="s" s="2">
         <v>185</v>
@@ -25197,16 +25057,16 @@
         <v>73</v>
       </c>
       <c r="I215" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>314</v>
+        <v>187</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -25269,13 +25129,13 @@
         <v>73</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>317</v>
+        <v>73</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>318</v>
+        <v>73</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="AL215" t="s" s="2">
         <v>73</v>
@@ -28044,7 +27904,7 @@
         <v>169</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C241" t="s" s="2">
         <v>73</v>
@@ -28069,10 +27929,10 @@
         <v>140</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
@@ -28620,10 +28480,10 @@
         <v>96</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="M246" t="s" s="2">
         <v>185</v>
@@ -28725,16 +28585,16 @@
         <v>73</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>323</v>
+        <v>187</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -28797,13 +28657,13 @@
         <v>73</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>324</v>
+        <v>73</v>
       </c>
       <c r="AJ247" t="s" s="2">
-        <v>318</v>
+        <v>73</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="AL247" t="s" s="2">
         <v>73</v>
@@ -31572,7 +31432,7 @@
         <v>169</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="C273" t="s" s="2">
         <v>73</v>
@@ -31597,10 +31457,10 @@
         <v>140</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -32148,10 +32008,10 @@
         <v>96</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="M278" t="s" s="2">
         <v>185</v>
@@ -32253,16 +32113,16 @@
         <v>73</v>
       </c>
       <c r="I279" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>328</v>
+        <v>187</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -32325,13 +32185,13 @@
         <v>73</v>
       </c>
       <c r="AI279" t="s" s="2">
-        <v>329</v>
+        <v>73</v>
       </c>
       <c r="AJ279" t="s" s="2">
-        <v>318</v>
+        <v>73</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="AL279" t="s" s="2">
         <v>73</v>
@@ -35100,7 +34960,7 @@
         <v>169</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C305" t="s" s="2">
         <v>73</v>
@@ -35125,10 +34985,10 @@
         <v>140</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="M305" s="2"/>
       <c r="N305" s="2"/>
@@ -35676,10 +35536,10 @@
         <v>96</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="M310" t="s" s="2">
         <v>185</v>
@@ -35781,16 +35641,16 @@
         <v>73</v>
       </c>
       <c r="I311" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>335</v>
+        <v>187</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -35853,13 +35713,13 @@
         <v>73</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AJ311" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="AL311" t="s" s="2">
         <v>73</v>
@@ -38628,7 +38488,7 @@
         <v>169</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="C337" t="s" s="2">
         <v>73</v>
@@ -38653,10 +38513,10 @@
         <v>140</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="M337" s="2"/>
       <c r="N337" s="2"/>
@@ -39204,10 +39064,10 @@
         <v>96</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="M342" t="s" s="2">
         <v>185</v>
@@ -39309,16 +39169,16 @@
         <v>73</v>
       </c>
       <c r="I343" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>345</v>
+        <v>187</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="M343" s="2"/>
       <c r="N343" s="2"/>
@@ -39381,13 +39241,13 @@
         <v>73</v>
       </c>
       <c r="AI343" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
       <c r="AJ343" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="AL343" t="s" s="2">
         <v>73</v>
@@ -42156,7 +42016,7 @@
         <v>169</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="C369" t="s" s="2">
         <v>73</v>
@@ -42181,10 +42041,10 @@
         <v>140</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="M369" s="2"/>
       <c r="N369" s="2"/>
@@ -42732,10 +42592,10 @@
         <v>96</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="M374" t="s" s="2">
         <v>185</v>
@@ -42821,7 +42681,7 @@
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -42837,16 +42697,16 @@
         <v>73</v>
       </c>
       <c r="I375" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J375" t="s" s="2">
-        <v>353</v>
+        <v>187</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" s="2"/>
@@ -42909,13 +42769,13 @@
         <v>73</v>
       </c>
       <c r="AI375" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AJ375" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK375" t="s" s="2">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="AL375" t="s" s="2">
         <v>73</v>
@@ -45684,7 +45544,7 @@
         <v>169</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="C401" t="s" s="2">
         <v>73</v>
@@ -45709,10 +45569,10 @@
         <v>140</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" s="2"/>
@@ -46260,10 +46120,10 @@
         <v>96</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="M406" t="s" s="2">
         <v>185</v>
@@ -46365,16 +46225,16 @@
         <v>73</v>
       </c>
       <c r="I407" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J407" t="s" s="2">
-        <v>360</v>
+        <v>187</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
@@ -46437,13 +46297,13 @@
         <v>73</v>
       </c>
       <c r="AI407" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AJ407" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK407" t="s" s="2">
-        <v>362</v>
+        <v>73</v>
       </c>
       <c r="AL407" t="s" s="2">
         <v>73</v>
@@ -49209,7 +49069,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" t="s" s="2">
@@ -49232,19 +49092,19 @@
         <v>83</v>
       </c>
       <c r="J433" t="s" s="2">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="N433" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="O433" t="s" s="2">
         <v>73</v>
@@ -49293,7 +49153,7 @@
         <v>73</v>
       </c>
       <c r="AE433" t="s" s="2">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="AF433" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15033" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15036" uniqueCount="368">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T08:40:37+00:00</t>
+    <t>2022-05-16T09:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -567,7 +567,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">value:resource.meta.profile}
+    <t xml:space="preserve">value:resource}
 </t>
   </si>
   <si>
@@ -855,10 +855,27 @@
     <t>埋め込まれているCompositionリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
+    <t xml:space="preserve">Composition {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Composition_ePrescriptionData}
+</t>
+  </si>
+  <si>
     <t>Compositionリソースのインスタンス本体</t>
   </si>
   <si>
     <t>Compositionリソースのインスタンス本体。</t>
+  </si>
+  <si>
+    <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument</t>
   </si>
   <si>
     <t>patient</t>
@@ -876,10 +893,24 @@
     <t>埋め込まれているPatientリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
+    <t xml:space="preserve">SubjectOfCare Client Resident
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Patient_ePrescriptionData}
+</t>
+  </si>
+  <si>
     <t>Patientリソースのインスタンス本体</t>
   </si>
   <si>
     <t>Patientリソースのインスタンス本体。</t>
+  </si>
+  <si>
+    <t>Patient[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument.recordTarget.patientRole</t>
   </si>
   <si>
     <t>encounterOnDocument</t>
@@ -902,10 +933,21 @@
     <t>埋め込まれているEncounterリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
+    <t xml:space="preserve">Visit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encounter {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Encounter_ePrescriptionData}
+</t>
+  </si>
+  <si>
     <t>Encounterリソースのインスタンス本体</t>
   </si>
   <si>
     <t>Encounterリソースのインスタンス本体。</t>
+  </si>
+  <si>
+    <t>Encounter[@moodCode='EVN']</t>
   </si>
   <si>
     <t>healthInsurancePublic</t>
@@ -925,10 +967,21 @@
     <t>埋め込まれているCoverageリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
+    <t xml:space="preserve">Coverage {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Coverage_ePrescriptionData_insurance}
+</t>
+  </si>
+  <si>
     <t>Coverageリソースのインスタンス本体</t>
   </si>
   <si>
     <t>Coverageリソースのインスタンス本体。</t>
+  </si>
+  <si>
+    <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.
+Coverageには、保険証レベルの情報が含まれている。これは、保険金請求やプロバイダーと保険会社間のその他の通信で提供するのが通例である。</t>
+  </si>
+  <si>
+    <t>Coverage</t>
   </si>
   <si>
     <t>publicPayment</t>
@@ -940,6 +993,10 @@
     <t>公費負担に関する情報をCovarageリソースで記述する。
 この文書の作成、あるいはこの文書の内容が実施される場合に適用される（された）医療保険の情報。
 公費負担によらず作成された文書や、文書内容が公費負担により実施されるのではない場合、文書の用途の観点から公費負担情報が必須でない場合には、省略できる。複数の公費負担情報を必要とする場合には、繰り返しで記述する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Coverage_ePrescriptionData_publicPayment}
+</t>
   </si>
   <si>
     <t>commonPayerOrganization</t>
@@ -958,10 +1015,24 @@
     <t>埋め込まれているOrganizationリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
+    <t xml:space="preserve">Organization {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Organization_ePrescriptionData_coveragePayer}
+</t>
+  </si>
+  <si>
     <t>Organizationリソースのインスタンス本体</t>
   </si>
   <si>
     <t>Organizationリソースのインスタンス本体。</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+  </si>
+  <si>
+    <t>(also see master files messages)</t>
+  </si>
+  <si>
+    <t>Organization(classCode=ORG, determinerCode=INST)</t>
   </si>
   <si>
     <t>custodianOrganization</t>
@@ -973,6 +1044,14 @@
     <t>文書を作成した組織（医療機関等）の情報をOrganaizationリソースで記述する。</t>
   </si>
   <si>
+    <t xml:space="preserve">Organization {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Organization_ePrescriptionData_issuer}
+</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}checkPhoneNumberExists:【telecomに電話番号が最低ひとつ記述されている】 {(telecom.where(system='phone' and value.exists())).exists()}</t>
+  </si>
+  <si>
     <t>custodianDepartmentOfOrganization</t>
   </si>
   <si>
@@ -980,6 +1059,14 @@
   </si>
   <si>
     <t>文書を作成した組織（医療機関等）における部門や診療科に関する情報をOrganaizationリソースで記述する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Organization_ePrescriptionData_departmentOfIssuer}
+</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}checkOrganizationType0:【診療部門コード(type[0].coding.where(system='http://terminology.hl7.org/CodeSystem/organization-type' and code='dept'))が正しい】 {(type[0].coding.where(system='http://terminology.hl7.org/CodeSystem/organization-type' and code='dept')).exists()}checkOrganizationType1:【診療科コード(type[1].coding.where(system='urn:oid:1.2.392.100495.20.2.51'))が存在する】 {(type[1].exists().not()) or ((type[1].coding.where(system='urn:oid:1.2.392.100495.20.2.51' )).exists())}</t>
   </si>
   <si>
     <t>authorisedAuthorRole</t>
@@ -998,10 +1085,20 @@
     <t>埋め込まれているPractitionerRoleリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
+    <t xml:space="preserve">PractitionerRole {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_PractitionerRole_ePrescriptionData_author}
+</t>
+  </si>
+  <si>
     <t>PractitionerRoleリソースのインスタンス本体</t>
   </si>
   <si>
     <t>PractitionerRoleリソースのインスタンス本体。</t>
+  </si>
+  <si>
+    <t>PRD (as one example)</t>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
   <si>
     <t>authorisedAuthor</t>
@@ -1020,10 +1117,26 @@
     <t>埋め込まれているPractitionerリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
+    <t xml:space="preserve">Practitioner {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Practitioner_ePrescriptionData_author}
+</t>
+  </si>
+  <si>
     <t>Practitionerリソースのインスタンス本体</t>
   </si>
   <si>
     <t>Practitionerリソースのインスタンス本体。</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}checkQualification-DoctorLicenseExists:【医師または歯科医師免許番号が存在し、system=urn:oid:1.2.392.100495.20.3.31で記述されている】 {(qualification[0].identifier.where(system='urn:oid:1.2.392.100495.20.3.31').exists()
+    and (qualification[0].code.coding.where(system='http://jpfhir.jp/fhir/core/CodeSystem/practitioner_certificate_category'
+      and (code='MedicalDoctorLicense' or code='DentalDoctorLicense'))).exists())}checkQualification-approapriateLicense:【資格番号は医師または歯科医師免許番号、麻薬施用者番号のいずれでかである】 {(qualification[1]).exists().not() or (qualification[1].code.coding.where(system='http://jpfhir.jp/fhir/core/CodeSystem/practitioner-certificate-category' and code!='MedicalDoctorLicense' and code!='DentalDoctorLicense' and code!='NarcoticsPractitioner') ).exists().not()}checkQualification-NarcoticPractitioner:【麻薬施用者番号が存在しないならそのチェックは不要。麻薬施用者番号が存在する場合はコードNarcoticPractitioner、identifier.system=urn:oid:1.2.392.100495.20.3.32.1XXXである】 {((qualification[1]).exists().not())
+ or ((qualification[1].code.coding.where(
+    system='http://jpfhir.jp/fhir/core/CodeSystem/practitioner-certificate-category'
+    and code='NarcoticsPractitioner') ).exists()
+ and qualification[1].identifier.where(
+     system.startsWith('urn:oid:1.2.392.100495.20.3.32.1')
+     ).exists())}checkQualification-category:【資格コードシステムはpractitioner_certificate_categoryだけである】 {(qualification[1]).exists().not() or (qualification.code.coding.where(system!='http://jpfhir.jp/fhir/core/CodeSystem/practitioner-certificate-category')).exists().not()}</t>
   </si>
   <si>
     <t>medicationRequest</t>
@@ -1035,10 +1148,21 @@
     <t>処方情報エントリ。医薬品の数だけ出現する。</t>
   </si>
   <si>
+    <t>Prescription
+Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedicationRequest {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_MedicationRequest_ePrescriptionData}
+</t>
+  </si>
+  <si>
     <t>MedicationRequestリソースのインスタンス本体</t>
   </si>
   <si>
     <t>MedicationRequestリソースのインスタンス本体。</t>
+  </si>
+  <si>
+    <t>CombinedMedicationRequest</t>
   </si>
   <si>
     <t>communication</t>
@@ -1050,7 +1174,14 @@
     <t>備考情報エントリで処方箋全体の指示、明細単位での備考を記述するリソースへの参照。</t>
   </si>
   <si>
+    <t xml:space="preserve">Communication {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Communication_ePrescriptionData}
+</t>
+  </si>
+  <si>
     <t>Communicationrリソースのインスタンス本体</t>
+  </si>
+  <si>
+    <t>Entity. Role, or Act</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1390,7 +1521,7 @@
   <cols>
     <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.90234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1414,7 +1545,7 @@
     <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="27.59765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -1423,8 +1554,8 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="67.23828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -7415,18 +7546,20 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>73</v>
@@ -7487,16 +7620,16 @@
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>73</v>
@@ -10262,7 +10395,7 @@
         <v>169</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>73</v>
@@ -10287,10 +10420,10 @@
         <v>140</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10838,10 +10971,10 @@
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>185</v>
@@ -10927,7 +11060,7 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -10943,16 +11076,16 @@
         <v>73</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11015,16 +11148,16 @@
         <v>73</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>73</v>
+        <v>281</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>73</v>
@@ -13790,7 +13923,7 @@
         <v>169</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>73</v>
@@ -13815,13 +13948,13 @@
         <v>140</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -14368,10 +14501,10 @@
         <v>96</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>185</v>
@@ -14457,7 +14590,7 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14473,16 +14606,16 @@
         <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14545,13 +14678,13 @@
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>73</v>
+        <v>293</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>73</v>
@@ -17320,7 +17453,7 @@
         <v>169</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>73</v>
@@ -17345,10 +17478,10 @@
         <v>140</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17896,10 +18029,10 @@
         <v>96</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>185</v>
@@ -18001,18 +18134,20 @@
         <v>73</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M151" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>73</v>
@@ -18073,13 +18208,13 @@
         <v>73</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>73</v>
+        <v>303</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>73</v>
@@ -20848,7 +20983,7 @@
         <v>169</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>73</v>
@@ -20873,10 +21008,10 @@
         <v>140</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -21424,10 +21559,10 @@
         <v>96</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>185</v>
@@ -21529,18 +21664,20 @@
         <v>73</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M183" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
         <v>73</v>
@@ -21601,13 +21738,13 @@
         <v>73</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>73</v>
+        <v>303</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>73</v>
@@ -24376,7 +24513,7 @@
         <v>169</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C209" t="s" s="2">
         <v>73</v>
@@ -24401,10 +24538,10 @@
         <v>140</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
@@ -24952,10 +25089,10 @@
         <v>96</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="M214" t="s" s="2">
         <v>185</v>
@@ -25057,16 +25194,16 @@
         <v>73</v>
       </c>
       <c r="I215" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -25129,13 +25266,13 @@
         <v>73</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>73</v>
+        <v>318</v>
       </c>
       <c r="AL215" t="s" s="2">
         <v>73</v>
@@ -27904,7 +28041,7 @@
         <v>169</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C241" t="s" s="2">
         <v>73</v>
@@ -27929,10 +28066,10 @@
         <v>140</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
@@ -28480,10 +28617,10 @@
         <v>96</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="M246" t="s" s="2">
         <v>185</v>
@@ -28585,16 +28722,16 @@
         <v>73</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>187</v>
+        <v>322</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -28657,13 +28794,13 @@
         <v>73</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="AJ247" t="s" s="2">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>73</v>
+        <v>318</v>
       </c>
       <c r="AL247" t="s" s="2">
         <v>73</v>
@@ -31432,7 +31569,7 @@
         <v>169</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="C273" t="s" s="2">
         <v>73</v>
@@ -31457,10 +31594,10 @@
         <v>140</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -32008,10 +32145,10 @@
         <v>96</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="M278" t="s" s="2">
         <v>185</v>
@@ -32113,16 +32250,16 @@
         <v>73</v>
       </c>
       <c r="I279" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -32185,13 +32322,13 @@
         <v>73</v>
       </c>
       <c r="AI279" t="s" s="2">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="AJ279" t="s" s="2">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>73</v>
+        <v>318</v>
       </c>
       <c r="AL279" t="s" s="2">
         <v>73</v>
@@ -34960,7 +35097,7 @@
         <v>169</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C305" t="s" s="2">
         <v>73</v>
@@ -34985,10 +35122,10 @@
         <v>140</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="M305" s="2"/>
       <c r="N305" s="2"/>
@@ -35536,10 +35673,10 @@
         <v>96</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="M310" t="s" s="2">
         <v>185</v>
@@ -35641,16 +35778,16 @@
         <v>73</v>
       </c>
       <c r="I311" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>187</v>
+        <v>334</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -35713,13 +35850,13 @@
         <v>73</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="AJ311" t="s" s="2">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AL311" t="s" s="2">
         <v>73</v>
@@ -38488,7 +38625,7 @@
         <v>169</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="C337" t="s" s="2">
         <v>73</v>
@@ -38513,10 +38650,10 @@
         <v>140</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="M337" s="2"/>
       <c r="N337" s="2"/>
@@ -39064,10 +39201,10 @@
         <v>96</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="M342" t="s" s="2">
         <v>185</v>
@@ -39169,16 +39306,16 @@
         <v>73</v>
       </c>
       <c r="I343" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>187</v>
+        <v>344</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="M343" s="2"/>
       <c r="N343" s="2"/>
@@ -39241,13 +39378,13 @@
         <v>73</v>
       </c>
       <c r="AI343" t="s" s="2">
-        <v>73</v>
+        <v>347</v>
       </c>
       <c r="AJ343" t="s" s="2">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AL343" t="s" s="2">
         <v>73</v>
@@ -42016,7 +42153,7 @@
         <v>169</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="C369" t="s" s="2">
         <v>73</v>
@@ -42041,10 +42178,10 @@
         <v>140</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="M369" s="2"/>
       <c r="N369" s="2"/>
@@ -42592,10 +42729,10 @@
         <v>96</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="M374" t="s" s="2">
         <v>185</v>
@@ -42681,7 +42818,7 @@
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
-        <v>73</v>
+        <v>351</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -42697,16 +42834,16 @@
         <v>73</v>
       </c>
       <c r="I375" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J375" t="s" s="2">
-        <v>187</v>
+        <v>352</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" s="2"/>
@@ -42769,13 +42906,13 @@
         <v>73</v>
       </c>
       <c r="AI375" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="AJ375" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK375" t="s" s="2">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="AL375" t="s" s="2">
         <v>73</v>
@@ -45544,7 +45681,7 @@
         <v>169</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="C401" t="s" s="2">
         <v>73</v>
@@ -45569,10 +45706,10 @@
         <v>140</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" s="2"/>
@@ -46120,10 +46257,10 @@
         <v>96</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="M406" t="s" s="2">
         <v>185</v>
@@ -46225,16 +46362,16 @@
         <v>73</v>
       </c>
       <c r="I407" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J407" t="s" s="2">
-        <v>187</v>
+        <v>359</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
@@ -46297,13 +46434,13 @@
         <v>73</v>
       </c>
       <c r="AI407" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="AJ407" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK407" t="s" s="2">
-        <v>73</v>
+        <v>361</v>
       </c>
       <c r="AL407" t="s" s="2">
         <v>73</v>
@@ -49069,7 +49206,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" t="s" s="2">
@@ -49092,19 +49229,19 @@
         <v>83</v>
       </c>
       <c r="J433" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="N433" t="s" s="2">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="O433" t="s" s="2">
         <v>73</v>
@@ -49153,7 +49290,7 @@
         <v>73</v>
       </c>
       <c r="AE433" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="AF433" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:13:28+00:00</t>
+    <t>2022-05-16T13:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:28:44+00:00</t>
+    <t>2022-05-16T13:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:35:07+00:00</t>
+    <t>2022-05-16T20:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T20:51:46+00:00</t>
+    <t>2022-05-16T21:03:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:03:30+00:00</t>
+    <t>2022-05-16T21:18:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -838,7 +838,7 @@
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
   </si>
   <si>
-    <t>composition</t>
+    <t>compositionInline</t>
   </si>
   <si>
     <t>documentタイプのBundleリソースの先頭entryはCompositionリソース。</t>
@@ -853,7 +853,7 @@
     <t>埋め込まれているCompositionリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Composition_ePrescriptionData}
+    <t xml:space="preserve">Composition {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_CompositionInline_ePrescriptionData}
 </t>
   </si>
   <si>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:18:12+00:00</t>
+    <t>2022-05-16T21:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:46:46+00:00</t>
+    <t>2022-05-16T22:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:00:55+00:00</t>
+    <t>2022-05-16T22:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:31:13+00:00</t>
+    <t>2022-05-16T22:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:59:36+00:00</t>
+    <t>2022-05-17T00:01:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T00:01:29+00:00</t>
+    <t>2022-05-17T00:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T00:36:56+00:00</t>
+    <t>2022-05-17T01:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T01:32:43+00:00</t>
+    <t>2022-05-17T02:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataBunkatsuInline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T02:11:59+00:00</t>
+    <t>2022-05-17T02:27:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
